--- a/QA/Test Cases/TestCase.xlsx
+++ b/QA/Test Cases/TestCase.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF82FD43-32A3-4E52-8E5D-9628DB68F3B5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9D5308-6F89-45A6-B8B1-3EDC98BC1408}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boundary values" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -133,212 +133,469 @@
     <t>cases</t>
   </si>
   <si>
-    <t>Use more than one character ","</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STR:
-1 - Open calculator
-2 - Enter any number
-3 -  Try entering more than one "," character
-4 -  See how many "," characters are entered </t>
-  </si>
-  <si>
-    <t>1 - Calculator opened
-2 - Number entered
-3 - Entered one "," sign
-4 - Entered one "," sign</t>
-  </si>
-  <si>
-    <t>Higt</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Ivan Shmidt</t>
-  </si>
-  <si>
-    <t>Valerii Vedmid</t>
-  </si>
-  <si>
-    <t>Use more than one character "0"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STR:
-1 - Open calculator
-2 -  Try entering more than one "0" character
-3 -  See how many "0" characters are entered </t>
-  </si>
-  <si>
-    <t>1 - Calculator opened
-2 - Entered one "0" sign
-3 - Entered one "0" sign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The possibility of entering a negative number that exceeds a permissible norm
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The possibility of entering a positive number that exceeds a permissible norm
-</t>
+    <t>Enter the number "5", select the operator "+", enter the number "4", press the equal and see the result</t>
+  </si>
+  <si>
+    <t>Enter the number "100", select the operator "-", enter the number "1", press the equal and see the result</t>
+  </si>
+  <si>
+    <t>Enter the number "20000", select the operator "/", enter the number "4", press the equal and see the result</t>
+  </si>
+  <si>
+    <t>Enter the number "2000", select the operator "*", enter the number "200", press the equal and see the result</t>
+  </si>
+  <si>
+    <t>Enter the number "-500", select the operator "+", enter the number "-50", press the equal and see the result</t>
+  </si>
+  <si>
+    <t>Enter the number "-2000", select the operator "/", enter the number "-4", press the equal and see the result</t>
+  </si>
+  <si>
+    <t>Enter the number "-30", select the operator "*", enter the number "-50", press the equal and see the result</t>
+  </si>
+  <si>
+    <t>Check positive decimal value</t>
+  </si>
+  <si>
+    <t>Checking positive integer values</t>
+  </si>
+  <si>
+    <t>Checking negative integer values</t>
+  </si>
+  <si>
+    <t>Enter the number "-123", select the operator "-", enter the number "-877", press the equal and see the result</t>
+  </si>
+  <si>
+    <t>Check negative decimal value</t>
+  </si>
+  <si>
+    <t>Enter the number "1.5", select the operator "/", enter the number "3", press the equal and see the result</t>
+  </si>
+  <si>
+    <t>Enter the number "1.025", select the operator "+", enter the number "1.025", press the equal and see the result</t>
+  </si>
+  <si>
+    <t>Enter the number "55.55", select the operator "*", enter the number "55.55", press the equal and see the result</t>
+  </si>
+  <si>
+    <t>Enter the number "-1.02", select the operator "+", enter the number "-0.99844855", press the equal and see the result</t>
+  </si>
+  <si>
+    <t>The displayed result is "9"</t>
+  </si>
+  <si>
+    <t>The displayed result is "99"</t>
+  </si>
+  <si>
+    <t>The displayed result is "5000"</t>
+  </si>
+  <si>
+    <t>The displayed result is "400000"</t>
+  </si>
+  <si>
+    <t>The displayed result is "754"</t>
+  </si>
+  <si>
+    <t>The displayed result is "-550"</t>
+  </si>
+  <si>
+    <t>The displayed result is "1500"</t>
+  </si>
+  <si>
+    <t>The displayed result is "500"</t>
+  </si>
+  <si>
+    <t>The displayed result is "2.05"</t>
+  </si>
+  <si>
+    <t>The displayed result is "0.5"</t>
+  </si>
+  <si>
+    <t>Enter the number "600.1", select the operator "-", enter the number "0.0225", press the equal and see the result</t>
+  </si>
+  <si>
+    <t>Enter the number "-1.555", select the operator "/", enter the number "-25.77", press the equal and see the result</t>
+  </si>
+  <si>
+    <t>Enter the number "-0.1", select the operator "-", enter the number "-0.1", press the equal and see the result</t>
+  </si>
+  <si>
+    <t>The displayed result is "3085.8025"</t>
+  </si>
+  <si>
+    <t>The displayed result is "600.0775"</t>
+  </si>
+  <si>
+    <t>The displayed result is "0.06034148"</t>
+  </si>
+  <si>
+    <t>Enter the number "-0.35", select the operator "*", enter the number "-0.0005", press the equal and see the result</t>
+  </si>
+  <si>
+    <t>The displayed result is "0.000175"</t>
+  </si>
+  <si>
+    <t>The displayed result is "-2.01844855"</t>
+  </si>
+  <si>
+    <t>The displayed result is "0"</t>
+  </si>
+  <si>
+    <t>Check for input "0"</t>
   </si>
   <si>
     <t>STR:
-1 - Open calculator
-2 - Enter a sign "-+"
-3 -  Try entering more than 16 numbers</t>
+1- Enter munber "0"
+2- look at the displayed result</t>
+  </si>
+  <si>
+    <t>Check for input "1"</t>
   </si>
   <si>
     <t>STR:
-1 - Open calculator
-2 -  Try entering more than 16 numbers</t>
-  </si>
-  <si>
-    <t>1 - Calculator opened
-2 - Entered 16 numbers</t>
-  </si>
-  <si>
-    <t>1 - Calculator opened
-2 - The meaning was translated into a negative
-3 - Entered 16 numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check for cleaning of the entered values
-</t>
+1- Enter munber "1"
+2- look at the displayed result</t>
+  </si>
+  <si>
+    <t>Check for input "9999999999999999"</t>
+  </si>
+  <si>
+    <t>Check for input "88888888888888888"</t>
   </si>
   <si>
     <t>STR:
-1 - Open calculator
-2 - Enter any number
-3 - Press button "C"</t>
-  </si>
-  <si>
-    <t>1 - Calculator opened
-2 - Number entered
-3 - The entered information was deleted</t>
-  </si>
-  <si>
-    <t>TC_BV_1</t>
-  </si>
-  <si>
-    <t>TC_BV_2</t>
-  </si>
-  <si>
-    <t>TC_BV_3</t>
-  </si>
-  <si>
-    <t>TC_BV_4</t>
-  </si>
-  <si>
-    <t>TC_BV_5</t>
-  </si>
-  <si>
-    <t>Validation check for valid values</t>
+1- Enter munber "9999999999999999"
+2- look at the displayed result</t>
+  </si>
+  <si>
+    <t>Check for input "-1"</t>
+  </si>
+  <si>
+    <t>Check for input "-9999999999999999"</t>
+  </si>
+  <si>
+    <t>Check for input "-88888888888888888"</t>
   </si>
   <si>
     <t>STR:
-1 - Open calculator
-2 - Enter values
-3 - Check the result</t>
-  </si>
-  <si>
-    <t>1 - Calculator opened
-2 - Number entered
-3 - The entered values are displayed</t>
-  </si>
-  <si>
-    <t>Check for addition</t>
-  </si>
-  <si>
-    <t>1 - Calculator opened
-2 - Entered value was displayed
-3 - Entered operation was displayed
-4 - Entered value was displayed
-5 - "=" is pressed
-6 - The displayed value is "100"</t>
+1- Enter munber "-9999999999999999"
+2- look at the displayed result</t>
+  </si>
+  <si>
+    <t>Check for input "1.1"</t>
+  </si>
+  <si>
+    <t>Check for input "0.111111111111111"</t>
+  </si>
+  <si>
+    <t>Check for input "1.1111111111111111"</t>
   </si>
   <si>
     <t>STR:
-1 - Open calculator
-2 - Enter "50"
-3 - Press "+"
-4 - Enter "50"
-5 - Press "="
-6 - Check the result</t>
+1- Enter munber "1.1"
+2- look at the displayed result</t>
   </si>
   <si>
     <t>STR:
-1 - Open calculator
-2 - Enter "50"
-3 - Press "-"
-4 - Enter "25"
-5 - Press "="
-6 - Check the result</t>
-  </si>
-  <si>
-    <t>1 - Calculator opened
-2 - Entered value was displayed
-3 - Entered operation was displayed
-4 - Entered value was displayed
-5 - "=" is pressed
-6 - The displayed value is "25"</t>
+1- Enter munber "0.111111111111111"
+2- look at the displayed result</t>
+  </si>
+  <si>
+    <t>Check for input "-1.1"</t>
+  </si>
+  <si>
+    <t>Check for input "-0.111111111111111"</t>
+  </si>
+  <si>
+    <t>Check for input "-1.1111111111111111"</t>
   </si>
   <si>
     <t>STR:
-1 - Open calculator
-2 - Enter "50"
-3 - Press "/"
-4 - Enter "5"
-5 - Press "="
-6 - Check the result</t>
-  </si>
-  <si>
-    <t>1 - Calculator opened
-2 - Entered value was displayed
-3 - Entered operation was displayed
-4 - Entered value was displayed
-5 - "=" is pressed
-6 - The displayed value is "10"</t>
+1- Enter munber "-1.1"
+2- look at the displayed result</t>
   </si>
   <si>
     <t>STR:
-1 - Open calculator
-2 - Enter "5"
-3 - Press "*"
-4 - Enter "5"
-5 - Press "="
-6 - Check the result</t>
-  </si>
-  <si>
-    <t>TC_EP_1</t>
-  </si>
-  <si>
-    <t>TC_EP_2</t>
-  </si>
-  <si>
-    <t>TC_EP_3</t>
-  </si>
-  <si>
-    <t>TC_EP_4</t>
-  </si>
-  <si>
-    <t>TC_EP_5</t>
-  </si>
-  <si>
-    <t>Check for subtraction</t>
-  </si>
-  <si>
-    <t>Check for division</t>
-  </si>
-  <si>
-    <t>Check for multiplication</t>
+1- Enter munber "-0.111111111111111"
+2- look at the displayed result</t>
+  </si>
+  <si>
+    <t>Check for health of the cleaning button</t>
+  </si>
+  <si>
+    <t>STR:
+1- Enter munber "55"
+2- Press the button "C" (Clear)
+3- look at the displayed result</t>
+  </si>
+  <si>
+    <t>1- Values were entered
+2- The displayed result "0"</t>
+  </si>
+  <si>
+    <t>1- Values were entered
+2- The displayed result "1"</t>
+  </si>
+  <si>
+    <t>1- Values were entered
+2- The displayed result "9999999999999999"</t>
+  </si>
+  <si>
+    <r>
+      <t>STR:
+1- Enter munber "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>88888888888888888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2- look at the displayed result</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1- Values were entered
+2- The displayed result "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8888888888888888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>STR:
+1- Enter munber "-1"
+2- look at the displayed result</t>
+  </si>
+  <si>
+    <t>1- Values were entered
+2- The displayed result "-1"</t>
+  </si>
+  <si>
+    <r>
+      <t>STR:
+1- Enter munber "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-88888888888888888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2- look at the displayed result</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1- Values were entered
+2- The displayed result "-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8888888888888888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>1- Values were entered
+2- The displayed result "1.1"</t>
+  </si>
+  <si>
+    <t>1- Values were entered
+2- The displayed result "0.111111111111111"</t>
+  </si>
+  <si>
+    <r>
+      <t>1- Values were entered
+2- The displayed result "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.111111111111111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>STR:
+1- Enter munber "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1111111111111111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2- look at the displayed result</t>
+    </r>
+  </si>
+  <si>
+    <t>1- Values were entered
+2- The displayed result "-0.11111111111111"</t>
+  </si>
+  <si>
+    <r>
+      <t>1- Values were entered
+2- The displayed result "-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.11111111111111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>STR:
+1- Enter munber "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1.1111111111111111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2- look at the displayed result</t>
+    </r>
+  </si>
+  <si>
+    <t>1- Values were entered
+2- The displayed result "-1.1"</t>
+  </si>
+  <si>
+    <t>1- Values were entered
+2- Button pressed
+3- The entered values were deleted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,8 +637,31 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,8 +673,19 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -417,12 +708,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -439,17 +775,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -778,16 +1145,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" customWidth="1"/>
     <col min="4" max="4" width="41.85546875" customWidth="1"/>
     <col min="5" max="5" width="37.7109375" customWidth="1"/>
@@ -834,136 +1201,204 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>55</v>
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>47</v>
+        <v>96</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>46</v>
+        <v>97</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>99</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -973,14 +1408,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="6"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="46.42578125" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" customWidth="1"/>
@@ -1028,137 +1464,287 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>2</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>2.1</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>2.4</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>3</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>3.3</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>3.4</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>4</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>4.3</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1167,13 +1753,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="41.5703125" customWidth="1"/>
     <col min="3" max="3" width="37.140625" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
@@ -1187,7 +1773,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1245,13 +1831,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1543,14 +2129,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">

--- a/QA/Test Cases/TestCase.xlsx
+++ b/QA/Test Cases/TestCase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9D5308-6F89-45A6-B8B1-3EDC98BC1408}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4628AE-9129-4B14-A56C-E92A1EE60106}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boundary values" sheetId="1" r:id="rId1"/>
@@ -781,20 +781,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -808,10 +799,19 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,6 +1221,9 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>74</v>
       </c>
@@ -1236,6 +1239,9 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>76</v>
       </c>
@@ -1251,6 +1257,9 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>77</v>
       </c>
@@ -1266,6 +1275,9 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>79</v>
       </c>
@@ -1281,6 +1293,9 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>80</v>
       </c>
@@ -1292,6 +1307,9 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>81</v>
       </c>
@@ -1303,6 +1321,9 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
       <c r="B9" s="4" t="s">
         <v>83</v>
       </c>
@@ -1314,6 +1335,9 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>84</v>
       </c>
@@ -1325,6 +1349,9 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
       <c r="B11" s="4" t="s">
         <v>85</v>
       </c>
@@ -1336,6 +1363,9 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>88</v>
       </c>
@@ -1347,7 +1377,9 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
       <c r="B13" s="4" t="s">
         <v>89</v>
       </c>
@@ -1359,7 +1391,9 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
       <c r="B14" s="4" t="s">
         <v>90</v>
       </c>
@@ -1371,7 +1405,9 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
       <c r="B15" s="4" t="s">
         <v>93</v>
       </c>
@@ -1383,22 +1419,22 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1410,7 +1446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1516,225 +1552,225 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>1</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="11">
+        <v>1</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="12">
         <v>1.2</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="12">
         <v>1.3</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="12">
         <v>1.4</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>2</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="12">
         <v>2.1</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="12">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="12">
         <v>2.4</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>3</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="12">
         <v>3.1</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="12">
         <v>3.2</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="12">
         <v>3.3</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="12">
         <v>3.4</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="11">
         <v>4</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="19"/>
+      <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="12">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="12">
         <v>4.2</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="A27" s="12">
         <v>4.3</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="12">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="14" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1831,13 +1867,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2129,14 +2165,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
